--- a/data/raw/election/voters-age-sex-education/2023/Uşak.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Uşak.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-17:03:57-56382180957" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="35">
   <si>
     <t>Uşak</t>
   </si>
@@ -119,6 +118,12 @@
   </si>
   <si>
     <t>Uşak Merkez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -652,7 +657,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -666,16 +671,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1000,10 +1014,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161:A162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,24 +1033,24 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1137,7 +1151,7 @@
         <v>25</v>
       </c>
       <c r="M6" s="5">
-        <v>1.52</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1176,7 +1190,7 @@
         <v>12</v>
       </c>
       <c r="M7" s="5">
-        <v>1.474</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1217,7 +1231,7 @@
         <v>5</v>
       </c>
       <c r="M8" s="5">
-        <v>1.079</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1256,7 +1270,7 @@
         <v>5</v>
       </c>
       <c r="M9" s="5">
-        <v>1.0389999999999999</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1297,7 +1311,7 @@
         <v>8</v>
       </c>
       <c r="M10" s="5">
-        <v>1.0680000000000001</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1335,7 +1349,7 @@
       <c r="L11" s="4">
         <v>12</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>967</v>
       </c>
     </row>
@@ -1377,7 +1391,7 @@
         <v>8</v>
       </c>
       <c r="M12" s="5">
-        <v>1.222</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1416,7 +1430,7 @@
         <v>9</v>
       </c>
       <c r="M13" s="5">
-        <v>1.0920000000000001</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1457,7 +1471,7 @@
         <v>16</v>
       </c>
       <c r="M14" s="5">
-        <v>1.304</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1496,7 +1510,7 @@
         <v>22</v>
       </c>
       <c r="M15" s="5">
-        <v>1.131</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1537,7 +1551,7 @@
         <v>15</v>
       </c>
       <c r="M16" s="5">
-        <v>1.139</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1576,7 +1590,7 @@
         <v>12</v>
       </c>
       <c r="M17" s="5">
-        <v>1.133</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1617,7 +1631,7 @@
         <v>23</v>
       </c>
       <c r="M18" s="5">
-        <v>1.1639999999999999</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1656,7 +1670,7 @@
         <v>30</v>
       </c>
       <c r="M19" s="5">
-        <v>1.1859999999999999</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1697,7 +1711,7 @@
         <v>41</v>
       </c>
       <c r="M20" s="5">
-        <v>1.2629999999999999</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1736,7 +1750,7 @@
         <v>39</v>
       </c>
       <c r="M21" s="5">
-        <v>1.258</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1777,7 +1791,7 @@
         <v>31</v>
       </c>
       <c r="M22" s="5">
-        <v>1.21</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1816,7 +1830,7 @@
         <v>44</v>
       </c>
       <c r="M23" s="5">
-        <v>1.304</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1857,7 +1871,7 @@
         <v>62</v>
       </c>
       <c r="M24" s="5">
-        <v>1.111</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1896,7 +1910,7 @@
         <v>52</v>
       </c>
       <c r="M25" s="5">
-        <v>1.228</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1936,7 +1950,7 @@
       <c r="L26" s="4">
         <v>36</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="6">
         <v>753</v>
       </c>
     </row>
@@ -1975,7 +1989,7 @@
       <c r="L27" s="4">
         <v>42</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="6">
         <v>946</v>
       </c>
     </row>
@@ -2016,7 +2030,7 @@
       <c r="L28" s="4">
         <v>40</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="6">
         <v>974</v>
       </c>
     </row>
@@ -2056,46 +2070,46 @@
         <v>31</v>
       </c>
       <c r="M29" s="5">
-        <v>1.3839999999999999</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
         <v>283</v>
       </c>
       <c r="D30" s="5">
-        <v>1.083</v>
+        <v>1083</v>
       </c>
       <c r="E30" s="5">
-        <v>9.3759999999999994</v>
+        <v>9376</v>
       </c>
       <c r="F30" s="5">
-        <v>3.1549999999999998</v>
+        <v>3155</v>
       </c>
       <c r="G30" s="5">
-        <v>4.2919999999999998</v>
+        <v>4292</v>
       </c>
       <c r="H30" s="5">
-        <v>6.0449999999999999</v>
+        <v>6045</v>
       </c>
       <c r="I30" s="5">
-        <v>2.875</v>
-      </c>
-      <c r="J30" s="5">
+        <v>2875</v>
+      </c>
+      <c r="J30" s="6">
         <v>202</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="6">
         <v>18</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="6">
         <v>620</v>
       </c>
       <c r="M30" s="5">
-        <v>27.949000000000002</v>
+        <v>27949</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2175,7 +2189,7 @@
         <v>34</v>
       </c>
       <c r="M32" s="5">
-        <v>1.472</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2214,7 +2228,7 @@
         <v>16</v>
       </c>
       <c r="M33" s="5">
-        <v>1.351</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2255,7 +2269,7 @@
         <v>13</v>
       </c>
       <c r="M34" s="5">
-        <v>1.0569999999999999</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2293,7 +2307,7 @@
       <c r="L35" s="4">
         <v>15</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="6">
         <v>918</v>
       </c>
     </row>
@@ -2334,7 +2348,7 @@
       <c r="L36" s="4">
         <v>20</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="6">
         <v>870</v>
       </c>
     </row>
@@ -2373,7 +2387,7 @@
       <c r="L37" s="4">
         <v>15</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="6">
         <v>822</v>
       </c>
     </row>
@@ -2415,7 +2429,7 @@
         <v>13</v>
       </c>
       <c r="M38" s="5">
-        <v>1.081</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2453,7 +2467,7 @@
       <c r="L39" s="4">
         <v>17</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="6">
         <v>980</v>
       </c>
     </row>
@@ -2495,7 +2509,7 @@
         <v>22</v>
       </c>
       <c r="M40" s="5">
-        <v>1.1619999999999999</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2534,7 +2548,7 @@
         <v>18</v>
       </c>
       <c r="M41" s="5">
-        <v>1.0960000000000001</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2575,7 +2589,7 @@
         <v>19</v>
       </c>
       <c r="M42" s="5">
-        <v>1.1160000000000001</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2614,7 +2628,7 @@
         <v>14</v>
       </c>
       <c r="M43" s="5">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2655,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="M44" s="5">
-        <v>1.2909999999999999</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2694,7 +2708,7 @@
         <v>15</v>
       </c>
       <c r="M45" s="5">
-        <v>1.3120000000000001</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2735,7 +2749,7 @@
         <v>30</v>
       </c>
       <c r="M46" s="5">
-        <v>1.351</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2774,7 +2788,7 @@
         <v>42</v>
       </c>
       <c r="M47" s="5">
-        <v>1.427</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2815,7 +2829,7 @@
         <v>30</v>
       </c>
       <c r="M48" s="5">
-        <v>1.276</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2854,7 +2868,7 @@
         <v>30</v>
       </c>
       <c r="M49" s="5">
-        <v>1.3460000000000001</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2895,7 +2909,7 @@
         <v>40</v>
       </c>
       <c r="M50" s="5">
-        <v>1.085</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2934,7 +2948,7 @@
         <v>31</v>
       </c>
       <c r="M51" s="5">
-        <v>1.175</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2974,7 +2988,7 @@
       <c r="L52" s="4">
         <v>17</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="6">
         <v>786</v>
       </c>
     </row>
@@ -3013,7 +3027,7 @@
       <c r="L53" s="4">
         <v>18</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="6">
         <v>950</v>
       </c>
     </row>
@@ -3055,7 +3069,7 @@
         <v>22</v>
       </c>
       <c r="M54" s="5">
-        <v>1.0669999999999999</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3094,46 +3108,46 @@
         <v>16</v>
       </c>
       <c r="M55" s="5">
-        <v>1.603</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="6">
         <v>397</v>
       </c>
       <c r="D56" s="5">
-        <v>2.0110000000000001</v>
+        <v>2011</v>
       </c>
       <c r="E56" s="5">
-        <v>9.9670000000000005</v>
+        <v>9967</v>
       </c>
       <c r="F56" s="5">
-        <v>2.14</v>
+        <v>2140</v>
       </c>
       <c r="G56" s="5">
-        <v>3.669</v>
+        <v>3669</v>
       </c>
       <c r="H56" s="5">
-        <v>5.7640000000000002</v>
+        <v>5764</v>
       </c>
       <c r="I56" s="5">
-        <v>3.0379999999999998</v>
-      </c>
-      <c r="J56" s="5">
+        <v>3038</v>
+      </c>
+      <c r="J56" s="6">
         <v>260</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="6">
         <v>18</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="6">
         <v>530</v>
       </c>
       <c r="M56" s="5">
-        <v>27.794</v>
+        <v>27794</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3212,7 +3226,7 @@
       <c r="L58" s="4">
         <v>2</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="6">
         <v>372</v>
       </c>
     </row>
@@ -3251,7 +3265,7 @@
       <c r="L59" s="4">
         <v>3</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="6">
         <v>335</v>
       </c>
     </row>
@@ -3292,7 +3306,7 @@
       <c r="L60" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="6">
         <v>290</v>
       </c>
     </row>
@@ -3331,7 +3345,7 @@
       <c r="L61" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="6">
         <v>236</v>
       </c>
     </row>
@@ -3372,7 +3386,7 @@
       <c r="L62" s="4">
         <v>1</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="6">
         <v>247</v>
       </c>
     </row>
@@ -3411,7 +3425,7 @@
       <c r="L63" s="4">
         <v>1</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="6">
         <v>218</v>
       </c>
     </row>
@@ -3452,7 +3466,7 @@
       <c r="L64" s="4">
         <v>1</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="6">
         <v>323</v>
       </c>
     </row>
@@ -3491,7 +3505,7 @@
       <c r="L65" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="6">
         <v>256</v>
       </c>
     </row>
@@ -3532,7 +3546,7 @@
       <c r="L66" s="4">
         <v>3</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="6">
         <v>347</v>
       </c>
     </row>
@@ -3571,7 +3585,7 @@
       <c r="L67" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="6">
         <v>267</v>
       </c>
     </row>
@@ -3612,7 +3626,7 @@
       <c r="L68" s="4">
         <v>3</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="6">
         <v>326</v>
       </c>
     </row>
@@ -3651,7 +3665,7 @@
       <c r="L69" s="4">
         <v>3</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="6">
         <v>297</v>
       </c>
     </row>
@@ -3692,7 +3706,7 @@
       <c r="L70" s="4">
         <v>7</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="6">
         <v>342</v>
       </c>
     </row>
@@ -3731,7 +3745,7 @@
       <c r="L71" s="4">
         <v>2</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="6">
         <v>326</v>
       </c>
     </row>
@@ -3772,7 +3786,7 @@
       <c r="L72" s="4">
         <v>2</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="6">
         <v>310</v>
       </c>
     </row>
@@ -3811,7 +3825,7 @@
       <c r="L73" s="4">
         <v>7</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="6">
         <v>325</v>
       </c>
     </row>
@@ -3852,7 +3866,7 @@
       <c r="L74" s="4">
         <v>4</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="6">
         <v>410</v>
       </c>
     </row>
@@ -3891,7 +3905,7 @@
       <c r="L75" s="4">
         <v>5</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="6">
         <v>398</v>
       </c>
     </row>
@@ -3932,7 +3946,7 @@
       <c r="L76" s="4">
         <v>7</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="6">
         <v>389</v>
       </c>
     </row>
@@ -3971,7 +3985,7 @@
       <c r="L77" s="4">
         <v>5</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="6">
         <v>408</v>
       </c>
     </row>
@@ -4012,7 +4026,7 @@
       <c r="L78" s="4">
         <v>2</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="6">
         <v>294</v>
       </c>
     </row>
@@ -4051,7 +4065,7 @@
       <c r="L79" s="4">
         <v>6</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="6">
         <v>387</v>
       </c>
     </row>
@@ -4092,7 +4106,7 @@
       <c r="L80" s="4">
         <v>9</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="6">
         <v>390</v>
       </c>
     </row>
@@ -4131,7 +4145,7 @@
       <c r="L81" s="4">
         <v>9</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="6">
         <v>676</v>
       </c>
     </row>
@@ -4139,39 +4153,39 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="6">
         <v>157</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="6">
         <v>765</v>
       </c>
       <c r="E82" s="5">
-        <v>3.085</v>
-      </c>
-      <c r="F82" s="5">
+        <v>3085</v>
+      </c>
+      <c r="F82" s="6">
         <v>903</v>
       </c>
       <c r="G82" s="5">
-        <v>1.03</v>
+        <v>1030</v>
       </c>
       <c r="H82" s="5">
-        <v>1.4359999999999999</v>
-      </c>
-      <c r="I82" s="5">
+        <v>1436</v>
+      </c>
+      <c r="I82" s="6">
         <v>652</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J82" s="6">
         <v>49</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="6">
         <v>10</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="6">
         <v>82</v>
       </c>
       <c r="M82" s="5">
-        <v>8.1690000000000005</v>
+        <v>8169</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4250,7 +4264,7 @@
       <c r="L84" s="4">
         <v>19</v>
       </c>
-      <c r="M84" s="5">
+      <c r="M84" s="6">
         <v>899</v>
       </c>
     </row>
@@ -4289,7 +4303,7 @@
       <c r="L85" s="4">
         <v>11</v>
       </c>
-      <c r="M85" s="5">
+      <c r="M85" s="6">
         <v>822</v>
       </c>
     </row>
@@ -4330,7 +4344,7 @@
       <c r="L86" s="4">
         <v>6</v>
       </c>
-      <c r="M86" s="5">
+      <c r="M86" s="6">
         <v>683</v>
       </c>
     </row>
@@ -4369,7 +4383,7 @@
       <c r="L87" s="4">
         <v>8</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="6">
         <v>538</v>
       </c>
     </row>
@@ -4410,7 +4424,7 @@
       <c r="L88" s="4">
         <v>9</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M88" s="6">
         <v>569</v>
       </c>
     </row>
@@ -4449,7 +4463,7 @@
       <c r="L89" s="4">
         <v>3</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="6">
         <v>523</v>
       </c>
     </row>
@@ -4490,7 +4504,7 @@
       <c r="L90" s="4">
         <v>9</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="6">
         <v>643</v>
       </c>
     </row>
@@ -4529,7 +4543,7 @@
       <c r="L91" s="4">
         <v>3</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="6">
         <v>557</v>
       </c>
     </row>
@@ -4570,7 +4584,7 @@
       <c r="L92" s="4">
         <v>8</v>
       </c>
-      <c r="M92" s="5">
+      <c r="M92" s="6">
         <v>740</v>
       </c>
     </row>
@@ -4609,7 +4623,7 @@
       <c r="L93" s="4">
         <v>16</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="6">
         <v>651</v>
       </c>
     </row>
@@ -4650,7 +4664,7 @@
       <c r="L94" s="4">
         <v>14</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="6">
         <v>736</v>
       </c>
     </row>
@@ -4689,7 +4703,7 @@
       <c r="L95" s="4">
         <v>15</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="6">
         <v>645</v>
       </c>
     </row>
@@ -4730,7 +4744,7 @@
       <c r="L96" s="4">
         <v>28</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="6">
         <v>719</v>
       </c>
     </row>
@@ -4769,7 +4783,7 @@
       <c r="L97" s="4">
         <v>26</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="6">
         <v>617</v>
       </c>
     </row>
@@ -4810,7 +4824,7 @@
       <c r="L98" s="4">
         <v>23</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="6">
         <v>651</v>
       </c>
     </row>
@@ -4849,7 +4863,7 @@
       <c r="L99" s="4">
         <v>32</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="6">
         <v>670</v>
       </c>
     </row>
@@ -4890,7 +4904,7 @@
       <c r="L100" s="4">
         <v>34</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="6">
         <v>674</v>
       </c>
     </row>
@@ -4929,7 +4943,7 @@
       <c r="L101" s="4">
         <v>38</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="6">
         <v>704</v>
       </c>
     </row>
@@ -4970,7 +4984,7 @@
       <c r="L102" s="4">
         <v>32</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="6">
         <v>576</v>
       </c>
     </row>
@@ -5009,7 +5023,7 @@
       <c r="L103" s="4">
         <v>24</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="6">
         <v>610</v>
       </c>
     </row>
@@ -5050,7 +5064,7 @@
       <c r="L104" s="4">
         <v>12</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="6">
         <v>381</v>
       </c>
     </row>
@@ -5089,7 +5103,7 @@
       <c r="L105" s="4">
         <v>13</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="6">
         <v>503</v>
       </c>
     </row>
@@ -5130,7 +5144,7 @@
       <c r="L106" s="4">
         <v>17</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="6">
         <v>535</v>
       </c>
     </row>
@@ -5169,7 +5183,7 @@
       <c r="L107" s="4">
         <v>12</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="6">
         <v>886</v>
       </c>
     </row>
@@ -5177,39 +5191,39 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="6">
         <v>293</v>
       </c>
       <c r="D108" s="5">
-        <v>1.026</v>
+        <v>1026</v>
       </c>
       <c r="E108" s="5">
-        <v>5.0709999999999997</v>
+        <v>5071</v>
       </c>
       <c r="F108" s="5">
-        <v>1.8440000000000001</v>
+        <v>1844</v>
       </c>
       <c r="G108" s="5">
-        <v>2.665</v>
+        <v>2665</v>
       </c>
       <c r="H108" s="5">
-        <v>2.9540000000000002</v>
+        <v>2954</v>
       </c>
       <c r="I108" s="5">
-        <v>1.149</v>
-      </c>
-      <c r="J108" s="5">
+        <v>1149</v>
+      </c>
+      <c r="J108" s="6">
         <v>105</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="6">
         <v>13</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="6">
         <v>412</v>
       </c>
       <c r="M108" s="5">
-        <v>15.532</v>
+        <v>15532</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5288,7 +5302,7 @@
       <c r="L110" s="4">
         <v>8</v>
       </c>
-      <c r="M110" s="5">
+      <c r="M110" s="6">
         <v>466</v>
       </c>
     </row>
@@ -5327,7 +5341,7 @@
       <c r="L111" s="4">
         <v>3</v>
       </c>
-      <c r="M111" s="5">
+      <c r="M111" s="6">
         <v>439</v>
       </c>
     </row>
@@ -5368,7 +5382,7 @@
       <c r="L112" s="4">
         <v>5</v>
       </c>
-      <c r="M112" s="5">
+      <c r="M112" s="6">
         <v>361</v>
       </c>
     </row>
@@ -5407,7 +5421,7 @@
       <c r="L113" s="4">
         <v>3</v>
       </c>
-      <c r="M113" s="5">
+      <c r="M113" s="6">
         <v>257</v>
       </c>
     </row>
@@ -5448,7 +5462,7 @@
       <c r="L114" s="4">
         <v>2</v>
       </c>
-      <c r="M114" s="5">
+      <c r="M114" s="6">
         <v>269</v>
       </c>
     </row>
@@ -5487,7 +5501,7 @@
       <c r="L115" s="4">
         <v>4</v>
       </c>
-      <c r="M115" s="5">
+      <c r="M115" s="6">
         <v>247</v>
       </c>
     </row>
@@ -5528,7 +5542,7 @@
       <c r="L116" s="4">
         <v>5</v>
       </c>
-      <c r="M116" s="5">
+      <c r="M116" s="6">
         <v>344</v>
       </c>
     </row>
@@ -5567,7 +5581,7 @@
       <c r="L117" s="4">
         <v>6</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="6">
         <v>295</v>
       </c>
     </row>
@@ -5608,7 +5622,7 @@
       <c r="L118" s="4">
         <v>12</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M118" s="6">
         <v>361</v>
       </c>
     </row>
@@ -5647,7 +5661,7 @@
       <c r="L119" s="4">
         <v>9</v>
       </c>
-      <c r="M119" s="5">
+      <c r="M119" s="6">
         <v>327</v>
       </c>
     </row>
@@ -5688,7 +5702,7 @@
       <c r="L120" s="4">
         <v>6</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="6">
         <v>398</v>
       </c>
     </row>
@@ -5727,7 +5741,7 @@
       <c r="L121" s="4">
         <v>5</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="6">
         <v>402</v>
       </c>
     </row>
@@ -5768,7 +5782,7 @@
       <c r="L122" s="4">
         <v>9</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="6">
         <v>459</v>
       </c>
     </row>
@@ -5807,7 +5821,7 @@
       <c r="L123" s="4">
         <v>14</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="6">
         <v>447</v>
       </c>
     </row>
@@ -5848,7 +5862,7 @@
       <c r="L124" s="4">
         <v>17</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="6">
         <v>492</v>
       </c>
     </row>
@@ -5887,7 +5901,7 @@
       <c r="L125" s="4">
         <v>11</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="6">
         <v>517</v>
       </c>
     </row>
@@ -5928,7 +5942,7 @@
       <c r="L126" s="4">
         <v>22</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="6">
         <v>513</v>
       </c>
     </row>
@@ -5967,7 +5981,7 @@
       <c r="L127" s="4">
         <v>26</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="6">
         <v>522</v>
       </c>
     </row>
@@ -6008,7 +6022,7 @@
       <c r="L128" s="4">
         <v>21</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="6">
         <v>487</v>
       </c>
     </row>
@@ -6047,7 +6061,7 @@
       <c r="L129" s="4">
         <v>18</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="6">
         <v>533</v>
       </c>
     </row>
@@ -6088,7 +6102,7 @@
       <c r="L130" s="4">
         <v>18</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="6">
         <v>373</v>
       </c>
     </row>
@@ -6127,7 +6141,7 @@
       <c r="L131" s="4">
         <v>13</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="6">
         <v>424</v>
       </c>
     </row>
@@ -6168,7 +6182,7 @@
       <c r="L132" s="4">
         <v>7</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="6">
         <v>487</v>
       </c>
     </row>
@@ -6207,7 +6221,7 @@
       <c r="L133" s="4">
         <v>12</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="6">
         <v>765</v>
       </c>
     </row>
@@ -6215,39 +6229,39 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
+      <c r="B134" s="7"/>
+      <c r="C134" s="6">
         <v>188</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="6">
         <v>753</v>
       </c>
       <c r="E134" s="5">
-        <v>3.62</v>
-      </c>
-      <c r="F134" s="5">
+        <v>3620</v>
+      </c>
+      <c r="F134" s="6">
         <v>701</v>
       </c>
       <c r="G134" s="5">
-        <v>1.351</v>
+        <v>1351</v>
       </c>
       <c r="H134" s="5">
-        <v>2.2429999999999999</v>
-      </c>
-      <c r="I134" s="5">
+        <v>2243</v>
+      </c>
+      <c r="I134" s="6">
         <v>996</v>
       </c>
-      <c r="J134" s="5">
+      <c r="J134" s="6">
         <v>73</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="6">
         <v>4</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="6">
         <v>256</v>
       </c>
       <c r="M134" s="5">
-        <v>10.185</v>
+        <v>10185</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6308,14 +6322,14 @@
       <c r="F136" s="4">
         <v>3</v>
       </c>
-      <c r="G136" s="4">
-        <v>2.8690000000000002</v>
-      </c>
-      <c r="H136" s="4">
-        <v>7.4509999999999996</v>
-      </c>
-      <c r="I136" s="4">
-        <v>1.4650000000000001</v>
+      <c r="G136" s="9">
+        <v>2869</v>
+      </c>
+      <c r="H136" s="9">
+        <v>7451</v>
+      </c>
+      <c r="I136" s="9">
+        <v>1465</v>
       </c>
       <c r="J136" s="4">
         <v>17</v>
@@ -6327,7 +6341,7 @@
         <v>98</v>
       </c>
       <c r="M136" s="5">
-        <v>11.956</v>
+        <v>11956</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6347,14 +6361,14 @@
       <c r="F137" s="4">
         <v>5</v>
       </c>
-      <c r="G137" s="4">
-        <v>1.9650000000000001</v>
-      </c>
-      <c r="H137" s="4">
-        <v>7.4039999999999999</v>
-      </c>
-      <c r="I137" s="4">
-        <v>2.4420000000000002</v>
+      <c r="G137" s="9">
+        <v>1965</v>
+      </c>
+      <c r="H137" s="9">
+        <v>7404</v>
+      </c>
+      <c r="I137" s="9">
+        <v>2442</v>
       </c>
       <c r="J137" s="4">
         <v>29</v>
@@ -6366,7 +6380,7 @@
         <v>46</v>
       </c>
       <c r="M137" s="5">
-        <v>11.961</v>
+        <v>11961</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6388,14 +6402,14 @@
       <c r="F138" s="4">
         <v>42</v>
       </c>
-      <c r="G138" s="4">
-        <v>2.395</v>
-      </c>
-      <c r="H138" s="4">
-        <v>2.931</v>
-      </c>
-      <c r="I138" s="4">
-        <v>3.298</v>
+      <c r="G138" s="9">
+        <v>2395</v>
+      </c>
+      <c r="H138" s="9">
+        <v>2931</v>
+      </c>
+      <c r="I138" s="9">
+        <v>3298</v>
       </c>
       <c r="J138" s="4">
         <v>255</v>
@@ -6407,7 +6421,7 @@
         <v>54</v>
       </c>
       <c r="M138" s="5">
-        <v>9.0370000000000008</v>
+        <v>9037</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6427,14 +6441,14 @@
       <c r="F139" s="4">
         <v>92</v>
       </c>
-      <c r="G139" s="4">
-        <v>1.827</v>
-      </c>
-      <c r="H139" s="4">
-        <v>2.1960000000000002</v>
-      </c>
-      <c r="I139" s="4">
-        <v>4.173</v>
+      <c r="G139" s="9">
+        <v>1827</v>
+      </c>
+      <c r="H139" s="9">
+        <v>2196</v>
+      </c>
+      <c r="I139" s="9">
+        <v>4173</v>
       </c>
       <c r="J139" s="4">
         <v>313</v>
@@ -6446,7 +6460,7 @@
         <v>36</v>
       </c>
       <c r="M139" s="5">
-        <v>8.798</v>
+        <v>8798</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6465,17 +6479,17 @@
       <c r="E140" s="4">
         <v>31</v>
       </c>
-      <c r="F140" s="4">
-        <v>1.512</v>
+      <c r="F140" s="9">
+        <v>1512</v>
       </c>
       <c r="G140" s="4">
         <v>929</v>
       </c>
-      <c r="H140" s="4">
-        <v>2.6720000000000002</v>
-      </c>
-      <c r="I140" s="4">
-        <v>2.968</v>
+      <c r="H140" s="9">
+        <v>2672</v>
+      </c>
+      <c r="I140" s="9">
+        <v>2968</v>
       </c>
       <c r="J140" s="4">
         <v>410</v>
@@ -6487,7 +6501,7 @@
         <v>52</v>
       </c>
       <c r="M140" s="5">
-        <v>8.6419999999999995</v>
+        <v>8642</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6504,17 +6518,17 @@
       <c r="E141" s="4">
         <v>88</v>
       </c>
-      <c r="F141" s="4">
-        <v>1.6080000000000001</v>
+      <c r="F141" s="9">
+        <v>1608</v>
       </c>
       <c r="G141" s="4">
         <v>804</v>
       </c>
-      <c r="H141" s="4">
-        <v>2.3319999999999999</v>
-      </c>
-      <c r="I141" s="4">
-        <v>3.2930000000000001</v>
+      <c r="H141" s="9">
+        <v>2332</v>
+      </c>
+      <c r="I141" s="9">
+        <v>3293</v>
       </c>
       <c r="J141" s="4">
         <v>448</v>
@@ -6526,7 +6540,7 @@
         <v>48</v>
       </c>
       <c r="M141" s="5">
-        <v>8.7620000000000005</v>
+        <v>8762</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6545,17 +6559,17 @@
       <c r="E142" s="4">
         <v>376</v>
       </c>
-      <c r="F142" s="4">
-        <v>2.0419999999999998</v>
+      <c r="F142" s="9">
+        <v>2042</v>
       </c>
       <c r="G142" s="4">
         <v>927</v>
       </c>
-      <c r="H142" s="4">
-        <v>3.0619999999999998</v>
-      </c>
-      <c r="I142" s="4">
-        <v>2.754</v>
+      <c r="H142" s="9">
+        <v>3062</v>
+      </c>
+      <c r="I142" s="9">
+        <v>2754</v>
       </c>
       <c r="J142" s="4">
         <v>465</v>
@@ -6567,7 +6581,7 @@
         <v>40</v>
       </c>
       <c r="M142" s="5">
-        <v>9.8160000000000007</v>
+        <v>9816</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6581,20 +6595,20 @@
       <c r="D143" s="4">
         <v>59</v>
       </c>
-      <c r="E143" s="4">
-        <v>1.1859999999999999</v>
-      </c>
-      <c r="F143" s="4">
-        <v>1.82</v>
-      </c>
-      <c r="G143" s="4">
-        <v>1.0960000000000001</v>
-      </c>
-      <c r="H143" s="4">
-        <v>2.6930000000000001</v>
-      </c>
-      <c r="I143" s="4">
-        <v>2.585</v>
+      <c r="E143" s="9">
+        <v>1186</v>
+      </c>
+      <c r="F143" s="9">
+        <v>1820</v>
+      </c>
+      <c r="G143" s="9">
+        <v>1096</v>
+      </c>
+      <c r="H143" s="9">
+        <v>2693</v>
+      </c>
+      <c r="I143" s="9">
+        <v>2585</v>
       </c>
       <c r="J143" s="4">
         <v>417</v>
@@ -6606,7 +6620,7 @@
         <v>43</v>
       </c>
       <c r="M143" s="5">
-        <v>9.9990000000000006</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6625,17 +6639,17 @@
       <c r="E144" s="4">
         <v>722</v>
       </c>
-      <c r="F144" s="4">
-        <v>1.9359999999999999</v>
-      </c>
-      <c r="G144" s="4">
-        <v>1.8180000000000001</v>
-      </c>
-      <c r="H144" s="4">
-        <v>2.992</v>
-      </c>
-      <c r="I144" s="4">
-        <v>2.2029999999999998</v>
+      <c r="F144" s="9">
+        <v>1936</v>
+      </c>
+      <c r="G144" s="9">
+        <v>1818</v>
+      </c>
+      <c r="H144" s="9">
+        <v>2992</v>
+      </c>
+      <c r="I144" s="9">
+        <v>2203</v>
       </c>
       <c r="J144" s="4">
         <v>443</v>
@@ -6647,7 +6661,7 @@
         <v>73</v>
       </c>
       <c r="M144" s="5">
-        <v>10.345000000000001</v>
+        <v>10345</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6661,20 +6675,20 @@
       <c r="D145" s="4">
         <v>63</v>
       </c>
-      <c r="E145" s="4">
-        <v>2.008</v>
-      </c>
-      <c r="F145" s="4">
-        <v>1.8680000000000001</v>
-      </c>
-      <c r="G145" s="4">
-        <v>1.7070000000000001</v>
-      </c>
-      <c r="H145" s="4">
-        <v>2.4590000000000001</v>
-      </c>
-      <c r="I145" s="4">
-        <v>2.0179999999999998</v>
+      <c r="E145" s="9">
+        <v>2008</v>
+      </c>
+      <c r="F145" s="9">
+        <v>1868</v>
+      </c>
+      <c r="G145" s="9">
+        <v>1707</v>
+      </c>
+      <c r="H145" s="9">
+        <v>2459</v>
+      </c>
+      <c r="I145" s="9">
+        <v>2018</v>
       </c>
       <c r="J145" s="4">
         <v>351</v>
@@ -6686,7 +6700,7 @@
         <v>59</v>
       </c>
       <c r="M145" s="5">
-        <v>10.645</v>
+        <v>10645</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6705,17 +6719,17 @@
       <c r="E146" s="4">
         <v>849</v>
       </c>
-      <c r="F146" s="4">
-        <v>2.101</v>
-      </c>
-      <c r="G146" s="4">
-        <v>1.3140000000000001</v>
-      </c>
-      <c r="H146" s="4">
-        <v>2.6379999999999999</v>
-      </c>
-      <c r="I146" s="4">
-        <v>1.885</v>
+      <c r="F146" s="9">
+        <v>2101</v>
+      </c>
+      <c r="G146" s="9">
+        <v>1314</v>
+      </c>
+      <c r="H146" s="9">
+        <v>2638</v>
+      </c>
+      <c r="I146" s="9">
+        <v>1885</v>
       </c>
       <c r="J146" s="4">
         <v>290</v>
@@ -6727,7 +6741,7 @@
         <v>86</v>
       </c>
       <c r="M146" s="5">
-        <v>9.2840000000000007</v>
+        <v>9284</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6741,20 +6755,20 @@
       <c r="D147" s="4">
         <v>44</v>
       </c>
-      <c r="E147" s="4">
-        <v>2.278</v>
-      </c>
-      <c r="F147" s="4">
-        <v>2.0720000000000001</v>
-      </c>
-      <c r="G147" s="4">
-        <v>1.411</v>
-      </c>
-      <c r="H147" s="4">
-        <v>1.9059999999999999</v>
-      </c>
-      <c r="I147" s="4">
-        <v>1.3580000000000001</v>
+      <c r="E147" s="9">
+        <v>2278</v>
+      </c>
+      <c r="F147" s="9">
+        <v>2072</v>
+      </c>
+      <c r="G147" s="9">
+        <v>1411</v>
+      </c>
+      <c r="H147" s="9">
+        <v>1906</v>
+      </c>
+      <c r="I147" s="9">
+        <v>1358</v>
       </c>
       <c r="J147" s="4">
         <v>161</v>
@@ -6766,7 +6780,7 @@
         <v>74</v>
       </c>
       <c r="M147" s="5">
-        <v>9.3740000000000006</v>
+        <v>9374</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6782,20 +6796,20 @@
       <c r="D148" s="4">
         <v>13</v>
       </c>
-      <c r="E148" s="4">
-        <v>1.0680000000000001</v>
-      </c>
-      <c r="F148" s="4">
-        <v>2.2610000000000001</v>
-      </c>
-      <c r="G148" s="4">
-        <v>1.3520000000000001</v>
-      </c>
-      <c r="H148" s="4">
-        <v>1.9690000000000001</v>
-      </c>
-      <c r="I148" s="4">
-        <v>1.41</v>
+      <c r="E148" s="9">
+        <v>1068</v>
+      </c>
+      <c r="F148" s="9">
+        <v>2261</v>
+      </c>
+      <c r="G148" s="9">
+        <v>1352</v>
+      </c>
+      <c r="H148" s="9">
+        <v>1969</v>
+      </c>
+      <c r="I148" s="9">
+        <v>1410</v>
       </c>
       <c r="J148" s="4">
         <v>159</v>
@@ -6807,7 +6821,7 @@
         <v>84</v>
       </c>
       <c r="M148" s="5">
-        <v>8.4009999999999998</v>
+        <v>8401</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6821,17 +6835,17 @@
       <c r="D149" s="4">
         <v>78</v>
       </c>
-      <c r="E149" s="4">
-        <v>2.7919999999999998</v>
-      </c>
-      <c r="F149" s="4">
-        <v>1.7829999999999999</v>
-      </c>
-      <c r="G149" s="4">
-        <v>1.1579999999999999</v>
-      </c>
-      <c r="H149" s="4">
-        <v>1.3620000000000001</v>
+      <c r="E149" s="9">
+        <v>2792</v>
+      </c>
+      <c r="F149" s="9">
+        <v>1783</v>
+      </c>
+      <c r="G149" s="9">
+        <v>1158</v>
+      </c>
+      <c r="H149" s="9">
+        <v>1362</v>
       </c>
       <c r="I149" s="4">
         <v>797</v>
@@ -6846,7 +6860,7 @@
         <v>112</v>
       </c>
       <c r="M149" s="5">
-        <v>8.234</v>
+        <v>8234</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6862,17 +6876,17 @@
       <c r="D150" s="4">
         <v>20</v>
       </c>
-      <c r="E150" s="4">
-        <v>1.4470000000000001</v>
-      </c>
-      <c r="F150" s="4">
-        <v>1.9379999999999999</v>
-      </c>
-      <c r="G150" s="4">
-        <v>1.1060000000000001</v>
-      </c>
-      <c r="H150" s="4">
-        <v>1.4830000000000001</v>
+      <c r="E150" s="9">
+        <v>1447</v>
+      </c>
+      <c r="F150" s="9">
+        <v>1938</v>
+      </c>
+      <c r="G150" s="9">
+        <v>1106</v>
+      </c>
+      <c r="H150" s="9">
+        <v>1483</v>
       </c>
       <c r="I150" s="4">
         <v>999</v>
@@ -6887,7 +6901,7 @@
         <v>129</v>
       </c>
       <c r="M150" s="5">
-        <v>7.3029999999999999</v>
+        <v>7303</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6901,17 +6915,17 @@
       <c r="D151" s="4">
         <v>177</v>
       </c>
-      <c r="E151" s="4">
-        <v>3.5259999999999998</v>
-      </c>
-      <c r="F151" s="4">
-        <v>1.1990000000000001</v>
+      <c r="E151" s="9">
+        <v>3526</v>
+      </c>
+      <c r="F151" s="9">
+        <v>1199</v>
       </c>
       <c r="G151" s="4">
         <v>851</v>
       </c>
-      <c r="H151" s="4">
-        <v>1.1240000000000001</v>
+      <c r="H151" s="9">
+        <v>1124</v>
       </c>
       <c r="I151" s="4">
         <v>408</v>
@@ -6926,7 +6940,7 @@
         <v>141</v>
       </c>
       <c r="M151" s="5">
-        <v>7.57</v>
+        <v>7570</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6942,8 +6956,8 @@
       <c r="D152" s="4">
         <v>57</v>
       </c>
-      <c r="E152" s="4">
-        <v>2.1429999999999998</v>
+      <c r="E152" s="9">
+        <v>2143</v>
       </c>
       <c r="F152" s="4">
         <v>973</v>
@@ -6951,8 +6965,8 @@
       <c r="G152" s="4">
         <v>741</v>
       </c>
-      <c r="H152" s="4">
-        <v>1.385</v>
+      <c r="H152" s="9">
+        <v>1385</v>
       </c>
       <c r="I152" s="4">
         <v>739</v>
@@ -6967,7 +6981,7 @@
         <v>145</v>
       </c>
       <c r="M152" s="5">
-        <v>6.3</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -6981,8 +6995,8 @@
       <c r="D153" s="4">
         <v>379</v>
       </c>
-      <c r="E153" s="4">
-        <v>3.6139999999999999</v>
+      <c r="E153" s="9">
+        <v>3614</v>
       </c>
       <c r="F153" s="4">
         <v>615</v>
@@ -7006,7 +7020,7 @@
         <v>158</v>
       </c>
       <c r="M153" s="5">
-        <v>6.7210000000000001</v>
+        <v>6721</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7022,8 +7036,8 @@
       <c r="D154" s="4">
         <v>93</v>
       </c>
-      <c r="E154" s="4">
-        <v>2.282</v>
+      <c r="E154" s="9">
+        <v>2282</v>
       </c>
       <c r="F154" s="4">
         <v>333</v>
@@ -7047,7 +7061,7 @@
         <v>148</v>
       </c>
       <c r="M154" s="5">
-        <v>5.0439999999999996</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7061,8 +7075,8 @@
       <c r="D155" s="4">
         <v>632</v>
       </c>
-      <c r="E155" s="4">
-        <v>2.988</v>
+      <c r="E155" s="9">
+        <v>2988</v>
       </c>
       <c r="F155" s="4">
         <v>167</v>
@@ -7086,7 +7100,7 @@
         <v>142</v>
       </c>
       <c r="M155" s="5">
-        <v>5.468</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7102,8 +7116,8 @@
       <c r="D156" s="4">
         <v>129</v>
       </c>
-      <c r="E156" s="4">
-        <v>1.8959999999999999</v>
+      <c r="E156" s="9">
+        <v>1896</v>
       </c>
       <c r="F156" s="4">
         <v>105</v>
@@ -7127,7 +7141,7 @@
         <v>87</v>
       </c>
       <c r="M156" s="5">
-        <v>3.4409999999999998</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7141,8 +7155,8 @@
       <c r="D157" s="4">
         <v>776</v>
       </c>
-      <c r="E157" s="4">
-        <v>1.966</v>
+      <c r="E157" s="9">
+        <v>1966</v>
       </c>
       <c r="F157" s="4">
         <v>46</v>
@@ -7166,7 +7180,7 @@
         <v>111</v>
       </c>
       <c r="M157" s="5">
-        <v>3.8969999999999998</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7182,8 +7196,8 @@
       <c r="D158" s="4">
         <v>613</v>
       </c>
-      <c r="E158" s="4">
-        <v>2.3010000000000002</v>
+      <c r="E158" s="9">
+        <v>2301</v>
       </c>
       <c r="F158" s="4">
         <v>52</v>
@@ -7207,7 +7221,7 @@
         <v>137</v>
       </c>
       <c r="M158" s="5">
-        <v>4.141</v>
+        <v>4141</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7215,14 +7229,14 @@
       <c r="B159" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C159" s="4">
-        <v>1.47</v>
-      </c>
-      <c r="D159" s="4">
-        <v>1.833</v>
-      </c>
-      <c r="E159" s="4">
-        <v>1.962</v>
+      <c r="C159" s="9">
+        <v>1470</v>
+      </c>
+      <c r="D159" s="9">
+        <v>1833</v>
+      </c>
+      <c r="E159" s="9">
+        <v>1962</v>
       </c>
       <c r="F159" s="4">
         <v>11</v>
@@ -7246,57 +7260,67 @@
         <v>117</v>
       </c>
       <c r="M159" s="5">
-        <v>5.6840000000000002</v>
+        <v>5684</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="5">
-        <v>3.3159999999999998</v>
+        <v>3316</v>
       </c>
       <c r="D160" s="5">
-        <v>5.2830000000000004</v>
+        <v>5283</v>
       </c>
       <c r="E160" s="5">
-        <v>35.718000000000004</v>
+        <v>35718</v>
       </c>
       <c r="F160" s="5">
-        <v>24.584</v>
+        <v>24584</v>
       </c>
       <c r="G160" s="5">
-        <v>26.170999999999999</v>
+        <v>26171</v>
       </c>
       <c r="H160" s="5">
-        <v>51.189</v>
+        <v>51189</v>
       </c>
       <c r="I160" s="5">
-        <v>37.351999999999997</v>
+        <v>37352</v>
       </c>
       <c r="J160" s="5">
-        <v>4.1130000000000004</v>
-      </c>
-      <c r="K160" s="5">
+        <v>4113</v>
+      </c>
+      <c r="K160" s="6">
         <v>877</v>
       </c>
       <c r="L160" s="5">
-        <v>2.2200000000000002</v>
+        <v>2220</v>
       </c>
       <c r="M160" s="5">
-        <v>190.82300000000001</v>
+        <v>190823</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A161" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A162" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A135:B135"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A135:B135"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
